--- a/2022/komandnye/Komandnye_2022.xlsx
+++ b/2022/komandnye/Komandnye_2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Сумма</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Сумма    (лыжные дисциплины)</t>
   </si>
   <si>
-    <t>23.04.2022  велокросс-спринт</t>
-  </si>
-  <si>
-    <t>24.04.2022  велокросс-классика</t>
-  </si>
-  <si>
     <t>02.10.2022  велокросс-общий старт</t>
   </si>
   <si>
@@ -112,6 +106,18 @@
   </si>
   <si>
     <t>06.03.2022     ЛГ-эстафета-     3 человека</t>
+  </si>
+  <si>
+    <t>07.05.2022  велокросс-спринт</t>
+  </si>
+  <si>
+    <t>08.05.2022  велокросс-классика</t>
+  </si>
+  <si>
+    <t>р.п. Красные Баки</t>
+  </si>
+  <si>
+    <t>г.о.г. Кулебаки</t>
   </si>
 </sst>
 </file>
@@ -346,14 +352,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>48987</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>19595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323127</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>155487</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>155486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -384,13 +390,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22877</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>17199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295676</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -709,10 +715,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -728,7 +734,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -788,10 +794,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>11</v>
@@ -800,7 +806,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>13</v>
@@ -946,16 +952,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -966,13 +972,19 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>810.1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>917.1</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <f>SUM(C11:E11)</f>
-        <v>0</v>
+        <v>1727.2</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -983,13 +995,19 @@
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>654.1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>581.4</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F15" si="0">SUM(C12:E12)</f>
-        <v>0</v>
+        <v>1235.5</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1000,13 +1018,19 @@
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4">
+        <v>411.7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>210.7</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>622.4</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -1017,13 +1041,19 @@
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>94.2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>92.2</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>186.4</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -1034,13 +1064,17 @@
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>141.1</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141.1</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -1054,31 +1088,31 @@
         <v>1</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="F17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="20" t="s">
+      <c r="H17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="20" t="s">
+      <c r="J17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="K17" s="21" t="s">
         <v>24</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6">
@@ -1200,10 +1234,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>0</v>
@@ -1220,11 +1254,14 @@
         <f>SUM(C5:I5)</f>
         <v>8884.5</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="22">
+        <f>C11+D11+E11</f>
+        <v>1727.2</v>
+      </c>
       <c r="E26" s="22"/>
       <c r="F26" s="25">
         <f>SUM(C26:E26)</f>
-        <v>8884.5</v>
+        <v>10611.7</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6">
@@ -1235,14 +1272,17 @@
         <v>6</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27:C29" si="2">SUM(C6:I6)</f>
+        <f t="shared" ref="C27:C28" si="2">SUM(C6:I6)</f>
         <v>6804.5999999999995</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="22">
+        <f>C12+D12+E12</f>
+        <v>1235.5</v>
+      </c>
       <c r="E27" s="22"/>
       <c r="F27" s="25">
-        <f t="shared" ref="F27:F29" si="3">SUM(C27:E27)</f>
-        <v>6804.5999999999995</v>
+        <f t="shared" ref="F27:F31" si="3">SUM(C27:E27)</f>
+        <v>8040.0999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6">
@@ -1256,11 +1296,14 @@
         <f t="shared" si="2"/>
         <v>3851.7999999999997</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="22">
+        <f>C14+D14+E14</f>
+        <v>186.4</v>
+      </c>
       <c r="E28" s="22"/>
       <c r="F28" s="25">
         <f t="shared" si="3"/>
-        <v>3851.7999999999997</v>
+        <v>4038.2</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6">
@@ -1268,34 +1311,54 @@
         <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="D29" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="22">
+        <f>C13+D13+E13</f>
+        <v>622.4</v>
+      </c>
       <c r="E29" s="22"/>
       <c r="F29" s="25">
+        <f>C29+D29+E29</f>
+        <v>622.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.6">
+      <c r="A30" s="4">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="22">
+        <f>C15+D15+E15</f>
+        <v>141.1</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="25">
+        <f>C30+D30+E30</f>
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.6">
+      <c r="A31" s="4">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUM(C8:I8)</f>
+        <v>32</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="25">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.6">
-      <c r="A30" s="15"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.6">
-      <c r="A31" s="15"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:11" ht="15.6">
       <c r="A32" s="15"/>
@@ -1313,37 +1376,53 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="35" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B35" s="26" t="s">
+    <row r="34" spans="1:9" ht="15.6">
+      <c r="A34" s="15"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6">
+      <c r="A35" s="15"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" customHeight="1">
+      <c r="B37" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.4" customHeight="1">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
     </row>
   </sheetData>
   <sortState ref="B4:K18">
     <sortCondition descending="1" ref="J18"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="E35:I36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="E37:I38"/>
     <mergeCell ref="A1:O2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2022/komandnye/Komandnye_2022.xlsx
+++ b/2022/komandnye/Komandnye_2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Сумма</t>
   </si>
@@ -30,9 +30,6 @@
     <t>№ п/п</t>
   </si>
   <si>
-    <t>Председатель президиума Федерации спортивного ориентирования Нижегородской области</t>
-  </si>
-  <si>
     <t>__________________ Шестаков П.В.</t>
   </si>
   <si>
@@ -118,6 +115,18 @@
   </si>
   <si>
     <t>г.о.г. Кулебаки</t>
+  </si>
+  <si>
+    <t>г.о.г. Арзамас</t>
+  </si>
+  <si>
+    <t>Арзамасский р-н</t>
+  </si>
+  <si>
+    <t>г.о. Семёновский</t>
+  </si>
+  <si>
+    <t>Председатель Федерации спортивного ориентирования Нижегородской области</t>
   </si>
 </sst>
 </file>
@@ -273,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -337,6 +346,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -352,14 +365,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>48987</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323127</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>155486</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>155487</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -390,14 +403,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22877</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>17199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295676</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85125</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85126</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -715,10 +728,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -734,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -788,28 +801,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="J4" s="19" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="15.6">
@@ -817,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
         <v>992.3</v>
@@ -850,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>884.2</v>
@@ -883,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4">
         <v>708.5</v>
@@ -916,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4">
         <v>32</v>
@@ -952,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>15</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -973,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4">
         <v>810.1</v>
@@ -996,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4">
         <v>654.1</v>
@@ -1019,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4">
         <v>411.7</v>
@@ -1042,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4">
         <v>94.2</v>
@@ -1065,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -1088,40 +1101,46 @@
         <v>1</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="E17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="H17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="20" t="s">
+      <c r="I17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="J17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="K17" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6">
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4">
+        <v>989.7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>996.8</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1130,34 +1149,45 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4">
         <f>SUM(C18:J18)</f>
-        <v>0</v>
+        <v>1986.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6">
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
+        <v>879.9</v>
+      </c>
+      <c r="D19" s="4">
+        <v>806.6</v>
+      </c>
+      <c r="E19" s="22"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4">
-        <f t="shared" ref="K19:K23" si="1">SUM(C19:J19)</f>
-        <v>0</v>
+        <f>SUM(C19:J19)</f>
+        <v>1686.5</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6">
       <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>959.9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>441.6</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1165,17 +1195,23 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(C20:J20)</f>
+        <v>1401.5</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4">
+        <v>667.6</v>
+      </c>
+      <c r="D21" s="4">
+        <v>423.6</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1183,17 +1219,23 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(C21:J21)</f>
+        <v>1091.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6">
       <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <v>502.2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>180.7</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1201,17 +1243,23 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="K19:K23" si="1">SUM(C22:J22)</f>
+        <v>682.9</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4">
+        <v>175.9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>152</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1220,7 +1268,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>327.9</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="46.8">
@@ -1231,13 +1279,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>0</v>
@@ -1248,20 +1296,23 @@
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4">
         <f>SUM(C5:I5)</f>
         <v>8884.5</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="30">
         <f>C11+D11+E11</f>
         <v>1727.2</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="30">
+        <f>SUM(C18:J18)</f>
+        <v>1986.5</v>
+      </c>
       <c r="F26" s="25">
         <f>SUM(C26:E26)</f>
-        <v>10611.7</v>
+        <v>12598.2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6">
@@ -1269,20 +1320,23 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C28" si="2">SUM(C6:I6)</f>
         <v>6804.5999999999995</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="30">
         <f>C12+D12+E12</f>
         <v>1235.5</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="30">
+        <f>SUM(C20:J20)</f>
+        <v>1401.5</v>
+      </c>
       <c r="F27" s="25">
-        <f t="shared" ref="F27:F31" si="3">SUM(C27:E27)</f>
-        <v>8040.0999999999995</v>
+        <f t="shared" ref="F27:F34" si="3">SUM(C27:E27)</f>
+        <v>9441.5999999999985</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6">
@@ -1290,20 +1344,23 @@
         <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="2"/>
         <v>3851.7999999999997</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="30">
         <f>C14+D14+E14</f>
         <v>186.4</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="30">
+        <f>SUM(C19:J19)</f>
+        <v>1686.5</v>
+      </c>
       <c r="F28" s="25">
         <f t="shared" si="3"/>
-        <v>4038.2</v>
+        <v>5724.7</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6">
@@ -1311,17 +1368,17 @@
         <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="22">
-        <f>C13+D13+E13</f>
-        <v>622.4</v>
-      </c>
-      <c r="E29" s="22"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30">
+        <f>SUM(C21:J21)</f>
+        <v>1091.2</v>
+      </c>
       <c r="F29" s="25">
-        <f>C29+D29+E29</f>
-        <v>622.4</v>
+        <f t="shared" si="3"/>
+        <v>1091.2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6">
@@ -1329,17 +1386,17 @@
         <v>5</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="22">
-        <f>C15+D15+E15</f>
-        <v>141.1</v>
-      </c>
-      <c r="E30" s="22"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30">
+        <f>SUM(C22:J22)</f>
+        <v>682.9</v>
+      </c>
       <c r="F30" s="25">
-        <f>C30+D30+E30</f>
-        <v>141.1</v>
+        <f t="shared" si="3"/>
+        <v>682.9</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6">
@@ -1347,42 +1404,72 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="30">
+        <f>C13+D13+E13</f>
+        <v>622.4</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="25">
+        <f>C31+D31+E31</f>
+        <v>622.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.6">
+      <c r="A32" s="4">
+        <v>7</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30">
+        <f>SUM(C23:J23)</f>
+        <v>327.9</v>
+      </c>
+      <c r="F32" s="25">
+        <f>C32+D32+E32</f>
+        <v>327.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.6">
+      <c r="A33" s="4">
+        <v>8</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="30">
+        <f>C15+D15+E15</f>
+        <v>141.1</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="25">
+        <f>C33+D33+E33</f>
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.6">
+      <c r="A34" s="4">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4">
         <f>SUM(C8:I8)</f>
         <v>32</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="25">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="25">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.6">
-      <c r="A32" s="15"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.6">
-      <c r="A33" s="15"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6">
-      <c r="A34" s="15"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="15"/>
@@ -1392,37 +1479,61 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="37" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B37" s="26" t="s">
+    <row r="36" spans="1:9" ht="15.6">
+      <c r="A36" s="15"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6">
+      <c r="A37" s="15"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.6">
+      <c r="A38" s="15"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.4" customHeight="1">
+      <c r="B40" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.4" customHeight="1">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
     </row>
   </sheetData>
   <sortState ref="B4:K18">
     <sortCondition descending="1" ref="J18"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="E37:I38"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="E40:I41"/>
     <mergeCell ref="A1:O2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2022/komandnye/Komandnye_2022.xlsx
+++ b/2022/komandnye/Komandnye_2022.xlsx
@@ -33,18 +33,12 @@
     <t>__________________ Шестаков П.В.</t>
   </si>
   <si>
-    <t>г. Балахна</t>
-  </si>
-  <si>
     <t>г.о.г. Дзержинск</t>
   </si>
   <si>
     <t>г.о.г. Бор</t>
   </si>
   <si>
-    <t>г.о.г. Нижний Новгород</t>
-  </si>
-  <si>
     <t>15.01.2022  ЛГ-спринт</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>08.05.2022  велокросс-классика</t>
   </si>
   <si>
-    <t>р.п. Красные Баки</t>
-  </si>
-  <si>
     <t>г.о.г. Кулебаки</t>
   </si>
   <si>
@@ -123,10 +114,19 @@
     <t>Арзамасский р-н</t>
   </si>
   <si>
-    <t>г.о. Семёновский</t>
-  </si>
-  <si>
     <t>Председатель Федерации спортивного ориентирования Нижегородской области</t>
+  </si>
+  <si>
+    <t>г.о. Семёнов</t>
+  </si>
+  <si>
+    <t>г. Нижний Новгород</t>
+  </si>
+  <si>
+    <t>Балахнинский р-н</t>
+  </si>
+  <si>
+    <t>Краснобаковский р-н</t>
   </si>
 </sst>
 </file>
@@ -337,6 +337,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -346,10 +350,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -730,8 +730,8 @@
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -746,40 +746,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="13"/>
@@ -801,28 +801,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="J4" s="19" t="s">
         <v>10</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="15.6">
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4">
         <v>992.3</v>
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>884.2</v>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>708.5</v>
@@ -929,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
         <v>32</v>
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4">
         <v>810.1</v>
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4">
         <v>654.1</v>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
         <v>411.7</v>
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4">
         <v>94.2</v>
@@ -1078,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -1101,31 +1101,31 @@
         <v>1</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="F17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="20" t="s">
+      <c r="H17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="20" t="s">
+      <c r="J17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="K17" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4">
         <v>989.7</v>
@@ -1156,8 +1156,8 @@
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>6</v>
+      <c r="B19" s="26" t="s">
+        <v>5</v>
       </c>
       <c r="C19" s="4">
         <v>879.9</v>
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4">
         <v>959.9</v>
@@ -1204,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4">
         <v>667.6</v>
@@ -1228,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4">
         <v>502.2</v>
@@ -1243,7 +1243,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4">
-        <f t="shared" ref="K19:K23" si="1">SUM(C22:J22)</f>
+        <f t="shared" ref="K22:K23" si="1">SUM(C22:J22)</f>
         <v>682.9</v>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4">
         <v>175.9</v>
@@ -1279,13 +1279,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>14</v>
-      </c>
       <c r="E25" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>0</v>
@@ -1296,17 +1296,17 @@
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4">
         <f>SUM(C5:I5)</f>
         <v>8884.5</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="27">
         <f>C11+D11+E11</f>
         <v>1727.2</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="27">
         <f>SUM(C18:J18)</f>
         <v>1986.5</v>
       </c>
@@ -1320,17 +1320,17 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C28" si="2">SUM(C6:I6)</f>
         <v>6804.5999999999995</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="27">
         <f>C12+D12+E12</f>
         <v>1235.5</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="27">
         <f>SUM(C20:J20)</f>
         <v>1401.5</v>
       </c>
@@ -1344,17 +1344,17 @@
         <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="2"/>
         <v>3851.7999999999997</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="27">
         <f>C14+D14+E14</f>
         <v>186.4</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="27">
         <f>SUM(C19:J19)</f>
         <v>1686.5</v>
       </c>
@@ -1368,11 +1368,11 @@
         <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27">
         <f>SUM(C21:J21)</f>
         <v>1091.2</v>
       </c>
@@ -1386,11 +1386,11 @@
         <v>5</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27">
         <f>SUM(C22:J22)</f>
         <v>682.9</v>
       </c>
@@ -1404,14 +1404,14 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="30">
+      <c r="D31" s="27">
         <f>C13+D13+E13</f>
         <v>622.4</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="25">
         <f>C31+D31+E31</f>
         <v>622.4</v>
@@ -1422,11 +1422,11 @@
         <v>7</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27">
         <f>SUM(C23:J23)</f>
         <v>327.9</v>
       </c>
@@ -1440,14 +1440,14 @@
         <v>8</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="30">
+      <c r="D33" s="27">
         <f>C15+D15+E15</f>
         <v>141.1</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="25">
         <f>C33+D33+E33</f>
         <v>141.1</v>
@@ -1458,14 +1458,14 @@
         <v>9</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C34" s="4">
         <f>SUM(C8:I8)</f>
         <v>32</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="25">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -1504,28 +1504,28 @@
       <c r="F38" s="16"/>
     </row>
     <row r="40" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B40" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27" t="s">
+      <c r="B40" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
     </row>
   </sheetData>
   <sortState ref="B4:K18">

--- a/2022/komandnye/Komandnye_2022.xlsx
+++ b/2022/komandnye/Komandnye_2022.xlsx
@@ -99,12 +99,6 @@
     <t>06.03.2022     ЛГ-эстафета-     3 человека</t>
   </si>
   <si>
-    <t>07.05.2022  велокросс-спринт</t>
-  </si>
-  <si>
-    <t>08.05.2022  велокросс-классика</t>
-  </si>
-  <si>
     <t>г.о.г. Кулебаки</t>
   </si>
   <si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>Краснобаковский р-н</t>
+  </si>
+  <si>
+    <t>23.04.2022  велокросс-спринт</t>
+  </si>
+  <si>
+    <t>24.04.2022  велокросс-классика</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4">
         <v>992.3</v>
@@ -929,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4">
         <v>32</v>
@@ -965,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>11</v>
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <v>810.1</v>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4">
         <v>411.7</v>
@@ -1078,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4">
         <v>989.7</v>
@@ -1204,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <v>667.6</v>
@@ -1228,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4">
         <v>502.2</v>
@@ -1252,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4">
         <v>175.9</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4">
         <f>SUM(C5:I5)</f>
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="27"/>
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="27"/>
@@ -1404,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="27">
@@ -1422,7 +1422,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="27"/>
@@ -1440,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="27">
@@ -1458,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4">
         <f>SUM(C8:I8)</f>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="40" spans="1:9" ht="14.4" customHeight="1">
       <c r="B40" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>

--- a/2022/komandnye/Komandnye_2022.xlsx
+++ b/2022/komandnye/Komandnye_2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Сумма</t>
   </si>
@@ -246,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -276,6 +276,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -329,7 +340,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -350,6 +360,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -365,13 +378,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>48987</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>19595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323127</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>155487</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -403,13 +416,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22877</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>17199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295676</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>85126</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -728,10 +741,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -746,40 +759,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="13"/>
@@ -934,12 +947,24 @@
       <c r="C8" s="4">
         <v>32</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
       <c r="J8" s="4">
         <f>SUM(C8:I8)</f>
         <v>32</v>
@@ -994,7 +1019,9 @@
       <c r="D11" s="4">
         <v>917.1</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
       <c r="F11" s="4">
         <f>SUM(C11:E11)</f>
         <v>1727.2</v>
@@ -1017,7 +1044,9 @@
       <c r="D12" s="4">
         <v>581.4</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F15" si="0">SUM(C12:E12)</f>
         <v>1235.5</v>
@@ -1040,7 +1069,9 @@
       <c r="D13" s="4">
         <v>210.7</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>622.4</v>
@@ -1063,7 +1094,9 @@
       <c r="D14" s="4">
         <v>92.2</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>186.4</v>
@@ -1080,11 +1113,15 @@
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
       <c r="D15" s="4">
         <v>141.1</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>141.1</v>
@@ -1141,22 +1178,34 @@
       <c r="D18" s="4">
         <v>996.8</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="E18" s="4">
+        <v>993.9</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
       <c r="K18" s="4">
         <f>SUM(C18:J18)</f>
-        <v>1986.5</v>
+        <v>2980.4</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6">
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4">
@@ -1165,14 +1214,27 @@
       <c r="D19" s="4">
         <v>806.6</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="E19" s="4">
+        <v>796.3</v>
+      </c>
+      <c r="F19" s="30">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
       <c r="K19" s="4">
         <f>SUM(C19:J19)</f>
-        <v>1686.5</v>
+        <v>2482.8000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6">
@@ -1188,15 +1250,27 @@
       <c r="D20" s="4">
         <v>441.6</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="E20" s="4">
+        <v>944.3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
       <c r="K20" s="4">
         <f>SUM(C20:J20)</f>
-        <v>1401.5</v>
+        <v>2345.8000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6">
@@ -1212,12 +1286,24 @@
       <c r="D21" s="4">
         <v>423.6</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
       <c r="K21" s="4">
         <f>SUM(C21:J21)</f>
         <v>1091.2</v>
@@ -1236,12 +1322,24 @@
       <c r="D22" s="4">
         <v>180.7</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
       <c r="K22" s="4">
         <f t="shared" ref="K22:K23" si="1">SUM(C22:J22)</f>
         <v>682.9</v>
@@ -1260,143 +1358,177 @@
       <c r="D23" s="4">
         <v>152</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
       <c r="K23" s="4">
         <f t="shared" si="1"/>
         <v>327.9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="46.8">
-      <c r="A25" s="6" t="s">
+    <row r="24" spans="1:11" ht="15.6">
+      <c r="A24" s="4">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>64.7</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f>SUM(C24:J24)</f>
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="46.8">
+      <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.6">
-      <c r="A26" s="4">
+      <c r="F26" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.6">
+      <c r="A27" s="4">
         <v>1</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <f>SUM(C5:I5)</f>
         <v>8884.5</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D27" s="26">
         <f>C11+D11+E11</f>
         <v>1727.2</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E27" s="26">
         <f>SUM(C18:J18)</f>
-        <v>1986.5</v>
-      </c>
-      <c r="F26" s="25">
-        <f>SUM(C26:E26)</f>
-        <v>12598.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.6">
-      <c r="A27" s="4">
+        <v>2980.4</v>
+      </c>
+      <c r="F27" s="24">
+        <f>SUM(C27:E27)</f>
+        <v>13592.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.6">
+      <c r="A28" s="4">
         <v>2</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="4">
-        <f t="shared" ref="C27:C28" si="2">SUM(C6:I6)</f>
+      <c r="C28" s="4">
+        <f t="shared" ref="C28:C29" si="2">SUM(C6:I6)</f>
         <v>6804.5999999999995</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D28" s="26">
         <f>C12+D12+E12</f>
         <v>1235.5</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E28" s="26">
         <f>SUM(C20:J20)</f>
-        <v>1401.5</v>
-      </c>
-      <c r="F27" s="25">
-        <f t="shared" ref="F27:F34" si="3">SUM(C27:E27)</f>
-        <v>9441.5999999999985</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.6">
-      <c r="A28" s="4">
+        <v>2345.8000000000002</v>
+      </c>
+      <c r="F28" s="24">
+        <f t="shared" ref="F28:F35" si="3">SUM(C28:E28)</f>
+        <v>10385.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.6">
+      <c r="A29" s="4">
         <v>3</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="4">
         <f t="shared" si="2"/>
         <v>3851.7999999999997</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D29" s="26">
         <f>C14+D14+E14</f>
         <v>186.4</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E29" s="26">
         <f>SUM(C19:J19)</f>
-        <v>1686.5</v>
-      </c>
-      <c r="F28" s="25">
+        <v>2482.8000000000002</v>
+      </c>
+      <c r="F29" s="24">
         <f t="shared" si="3"/>
-        <v>5724.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.6">
-      <c r="A29" s="4">
+        <v>6521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.6">
+      <c r="A30" s="4">
         <v>4</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27">
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="26">
+        <v>0</v>
+      </c>
+      <c r="E30" s="26">
         <f>SUM(C21:J21)</f>
         <v>1091.2</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F30" s="24">
         <f t="shared" si="3"/>
         <v>1091.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.6">
-      <c r="A30" s="4">
-        <v>5</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27">
-        <f>SUM(C22:J22)</f>
-        <v>682.9</v>
-      </c>
-      <c r="F30" s="25">
-        <f t="shared" si="3"/>
-        <v>682.9</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6">
@@ -1406,82 +1538,113 @@
       <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="27">
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="26">
         <f>C13+D13+E13</f>
         <v>622.4</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="25">
+      <c r="E31" s="26">
+        <f>SUM(C24:J24)</f>
+        <v>64.7</v>
+      </c>
+      <c r="F31" s="24">
         <f>C31+D31+E31</f>
-        <v>622.4</v>
+        <v>687.1</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6">
       <c r="A32" s="4">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="26">
+        <v>0</v>
+      </c>
+      <c r="E32" s="26">
+        <f>SUM(C22:J22)</f>
+        <v>682.9</v>
+      </c>
+      <c r="F32" s="24">
+        <f t="shared" si="3"/>
+        <v>682.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.6">
+      <c r="A33" s="4">
         <v>7</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27">
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
         <f>SUM(C23:J23)</f>
         <v>327.9</v>
       </c>
-      <c r="F32" s="25">
-        <f>C32+D32+E32</f>
+      <c r="F33" s="24">
+        <f>C33+D33+E33</f>
         <v>327.9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.6">
-      <c r="A33" s="4">
+    <row r="34" spans="1:9" ht="15.6">
+      <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="27">
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="26">
         <f>C15+D15+E15</f>
         <v>141.1</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="25">
-        <f>C33+D33+E33</f>
+      <c r="E34" s="26">
+        <v>0</v>
+      </c>
+      <c r="F34" s="24">
+        <f>C34+D34+E34</f>
         <v>141.1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.6">
-      <c r="A34" s="4">
+    <row r="35" spans="1:9" ht="15.6">
+      <c r="A35" s="4">
         <v>9</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="4">
         <f>SUM(C8:I8)</f>
         <v>32</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="25">
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0</v>
+      </c>
+      <c r="F35" s="24">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.6">
-      <c r="A35" s="15"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-    </row>
     <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="15"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -1489,7 +1652,7 @@
     </row>
     <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="15"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -1497,43 +1660,51 @@
     </row>
     <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="15"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
     </row>
-    <row r="40" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B40" s="28" t="s">
+    <row r="39" spans="1:9" ht="15.6">
+      <c r="A39" s="15"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.4" customHeight="1">
+      <c r="B41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-    </row>
-    <row r="41" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.4" customHeight="1">
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
     </row>
   </sheetData>
   <sortState ref="B4:K18">
     <sortCondition descending="1" ref="J18"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="B40:D41"/>
-    <mergeCell ref="E40:I41"/>
+    <mergeCell ref="B41:D42"/>
+    <mergeCell ref="E41:I42"/>
     <mergeCell ref="A1:O2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2022/komandnye/Komandnye_2022.xlsx
+++ b/2022/komandnye/Komandnye_2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Сумма</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Сумма    (лыжные дисциплины)</t>
   </si>
   <si>
-    <t>02.10.2022  велокросс-общий старт</t>
-  </si>
-  <si>
     <t>Сумма    (велокроссовые дисциплины)</t>
   </si>
   <si>
@@ -69,21 +66,9 @@
     <t>14.05.2022  кросс-выбор</t>
   </si>
   <si>
-    <t>27.08.2022  кросс-классика</t>
-  </si>
-  <si>
-    <t>26.08.2022  кросс-лонг-общий старт</t>
-  </si>
-  <si>
-    <t>28.08.2022  кросс-лонг</t>
-  </si>
-  <si>
     <t>24.09.2022  кросс-спринт-общий старт</t>
   </si>
   <si>
-    <t>23.10.2022  кросс-марафон/  многодневный</t>
-  </si>
-  <si>
     <t>Сумма    (кроссовые дисциплины)</t>
   </si>
   <si>
@@ -127,6 +112,12 @@
   </si>
   <si>
     <t>24.04.2022  велокросс-классика</t>
+  </si>
+  <si>
+    <t>25.09.2022  велокросс-общий старт</t>
+  </si>
+  <si>
+    <t>Павловский р-н</t>
   </si>
 </sst>
 </file>
@@ -351,6 +342,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -359,9 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,13 +369,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>48987</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>19595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323127</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>155487</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -416,14 +407,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22877</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>17199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295676</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85126</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -741,10 +732,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -759,40 +750,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="A1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="13"/>
@@ -820,10 +811,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>8</v>
@@ -832,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>10</v>
@@ -843,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4">
         <v>992.3</v>
@@ -942,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4">
         <v>32</v>
@@ -990,16 +981,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>12</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -1011,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4">
         <v>810.1</v>
@@ -1020,11 +1011,11 @@
         <v>917.1</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>831.3</v>
       </c>
       <c r="F11" s="4">
         <f>SUM(C11:E11)</f>
-        <v>1727.2</v>
+        <v>2558.5</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -1045,11 +1036,11 @@
         <v>581.4</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>519.70000000000005</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F15" si="0">SUM(C12:E12)</f>
-        <v>1235.5</v>
+        <v>1755.2</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1061,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4">
         <v>411.7</v>
@@ -1070,11 +1061,11 @@
         <v>210.7</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
+        <v>216.7</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>622.4</v>
+        <v>839.09999999999991</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -1095,11 +1086,11 @@
         <v>92.2</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>186.4</v>
+        <v>286.39999999999998</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -1111,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1138,31 +1129,23 @@
         <v>1</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="E17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6">
@@ -1170,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
         <v>989.7</v>
@@ -1182,7 +1165,7 @@
         <v>993.9</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>993.4</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -1198,27 +1181,27 @@
       </c>
       <c r="K18" s="4">
         <f>SUM(C18:J18)</f>
-        <v>2980.4</v>
+        <v>3973.8</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6">
       <c r="A19" s="4">
-        <v>2</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C19" s="4">
-        <v>879.9</v>
+        <v>959.9</v>
       </c>
       <c r="D19" s="4">
-        <v>806.6</v>
+        <v>441.6</v>
       </c>
       <c r="E19" s="4">
-        <v>796.3</v>
-      </c>
-      <c r="F19" s="30">
-        <v>0</v>
+        <v>944.3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>949.9</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -1234,27 +1217,27 @@
       </c>
       <c r="K19" s="4">
         <f>SUM(C19:J19)</f>
-        <v>2482.8000000000002</v>
+        <v>3295.7000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6">
       <c r="A20" s="4">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="4">
-        <v>959.9</v>
+        <v>879.9</v>
       </c>
       <c r="D20" s="4">
-        <v>441.6</v>
+        <v>806.6</v>
       </c>
       <c r="E20" s="4">
-        <v>944.3</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
+        <v>796.3</v>
+      </c>
+      <c r="F20" s="27">
+        <v>798</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -1270,7 +1253,7 @@
       </c>
       <c r="K20" s="4">
         <f>SUM(C20:J20)</f>
-        <v>2345.8000000000002</v>
+        <v>3280.8</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6">
@@ -1278,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4">
         <v>667.6</v>
@@ -1314,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4">
         <v>502.2</v>
@@ -1350,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4">
         <v>175.9</v>
@@ -1362,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>96.1</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
@@ -1378,7 +1361,7 @@
       </c>
       <c r="K23" s="4">
         <f t="shared" si="1"/>
-        <v>327.9</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6">
@@ -1386,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1417,254 +1400,288 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="46.8">
-      <c r="A26" s="6" t="s">
+    <row r="25" spans="1:11" ht="15.6">
+      <c r="A25" s="4">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>62.1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f>SUM(C25:J25)</f>
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="46.8">
+      <c r="A27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.6">
-      <c r="A27" s="4">
+      <c r="D27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.6">
+      <c r="A28" s="4">
         <v>1</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
         <f>SUM(C5:I5)</f>
         <v>8884.5</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D28" s="26">
         <f>C11+D11+E11</f>
-        <v>1727.2</v>
-      </c>
-      <c r="E27" s="26">
+        <v>2558.5</v>
+      </c>
+      <c r="E28" s="26">
         <f>SUM(C18:J18)</f>
-        <v>2980.4</v>
-      </c>
-      <c r="F27" s="24">
-        <f>SUM(C27:E27)</f>
-        <v>13592.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.6">
-      <c r="A28" s="4">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" ref="C28:C29" si="2">SUM(C6:I6)</f>
-        <v>6804.5999999999995</v>
-      </c>
-      <c r="D28" s="26">
-        <f>C12+D12+E12</f>
-        <v>1235.5</v>
-      </c>
-      <c r="E28" s="26">
-        <f>SUM(C20:J20)</f>
-        <v>2345.8000000000002</v>
+        <v>3973.8</v>
       </c>
       <c r="F28" s="24">
-        <f t="shared" ref="F28:F35" si="3">SUM(C28:E28)</f>
-        <v>10385.9</v>
+        <f>SUM(C28:E28)</f>
+        <v>15416.8</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6">
       <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" ref="C29:C30" si="2">SUM(C6:I6)</f>
+        <v>6804.5999999999995</v>
+      </c>
+      <c r="D29" s="26">
+        <f>C12+D12+E12</f>
+        <v>1755.2</v>
+      </c>
+      <c r="E29" s="26">
+        <f>SUM(C19:J19)</f>
+        <v>3295.7000000000003</v>
+      </c>
+      <c r="F29" s="24">
+        <f t="shared" ref="F29:F37" si="3">SUM(C29:E29)</f>
+        <v>11855.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.6">
+      <c r="A30" s="4">
         <v>3</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C30" s="4">
         <f t="shared" si="2"/>
         <v>3851.7999999999997</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D30" s="26">
         <f>C14+D14+E14</f>
-        <v>186.4</v>
-      </c>
-      <c r="E29" s="26">
-        <f>SUM(C19:J19)</f>
-        <v>2482.8000000000002</v>
-      </c>
-      <c r="F29" s="24">
-        <f t="shared" si="3"/>
-        <v>6521</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.6">
-      <c r="A30" s="4">
-        <v>4</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="26">
-        <v>0</v>
+        <v>286.39999999999998</v>
       </c>
       <c r="E30" s="26">
-        <f>SUM(C21:J21)</f>
-        <v>1091.2</v>
+        <f t="shared" ref="E30:E31" si="4">SUM(C20:J20)</f>
+        <v>3280.8</v>
       </c>
       <c r="F30" s="24">
         <f t="shared" si="3"/>
-        <v>1091.2</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6">
       <c r="A31" s="4">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="26">
+        <v>0</v>
+      </c>
+      <c r="E31" s="26">
+        <f t="shared" si="4"/>
+        <v>1091.2</v>
+      </c>
+      <c r="F31" s="24">
+        <f t="shared" si="3"/>
+        <v>1091.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.6">
+      <c r="A32" s="4">
         <v>6</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="26">
+      <c r="B32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="26">
         <f>C13+D13+E13</f>
-        <v>622.4</v>
-      </c>
-      <c r="E31" s="26">
+        <v>839.09999999999991</v>
+      </c>
+      <c r="E32" s="26">
         <f>SUM(C24:J24)</f>
         <v>64.7</v>
       </c>
-      <c r="F31" s="24">
-        <f>C31+D31+E31</f>
-        <v>687.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.6">
-      <c r="A32" s="4">
+      <c r="F32" s="24">
+        <f>C32+D32+E32</f>
+        <v>903.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.6">
+      <c r="A33" s="4">
         <v>5</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="26">
-        <v>0</v>
-      </c>
-      <c r="E32" s="26">
+      <c r="B33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
         <f>SUM(C22:J22)</f>
         <v>682.9</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F33" s="24">
         <f t="shared" si="3"/>
         <v>682.9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.6">
-      <c r="A33" s="4">
-        <v>7</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
-        <f>SUM(C23:J23)</f>
-        <v>327.9</v>
-      </c>
-      <c r="F33" s="24">
-        <f>C33+D33+E33</f>
-        <v>327.9</v>
-      </c>
-    </row>
     <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="4">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+      <c r="E34" s="26">
+        <f>SUM(C23:J23)</f>
+        <v>424</v>
+      </c>
+      <c r="F34" s="24">
+        <f>C34+D34+E34</f>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.6">
+      <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="26">
+      <c r="B35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="26">
         <f>C15+D15+E15</f>
         <v>141.1</v>
       </c>
-      <c r="E34" s="26">
-        <v>0</v>
-      </c>
-      <c r="F34" s="24">
-        <f>C34+D34+E34</f>
+      <c r="E35" s="26">
+        <v>0</v>
+      </c>
+      <c r="F35" s="24">
+        <f>C35+D35+E35</f>
         <v>141.1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.6">
-      <c r="A35" s="4">
+    <row r="36" spans="1:9" ht="15.6">
+      <c r="A36" s="4">
         <v>9</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0</v>
+      </c>
+      <c r="E36" s="26">
+        <f>SUM(C25:J25)</f>
+        <v>62.1</v>
+      </c>
+      <c r="F36" s="24">
+        <f>C36+D36+E36</f>
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.6">
+      <c r="A37" s="4">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="4">
         <f>SUM(C8:I8)</f>
         <v>32</v>
       </c>
-      <c r="D35" s="26">
-        <v>0</v>
-      </c>
-      <c r="E35" s="26">
-        <v>0</v>
-      </c>
-      <c r="F35" s="24">
+      <c r="D37" s="26">
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <v>0</v>
+      </c>
+      <c r="F37" s="24">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.6">
-      <c r="A36" s="15"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.6">
-      <c r="A37" s="15"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.6">
-      <c r="A38" s="15"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="15"/>
@@ -1674,37 +1691,61 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="41" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B41" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28" t="s">
+    <row r="40" spans="1:9" ht="15.6">
+      <c r="A40" s="15"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6">
+      <c r="A41" s="15"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.6">
+      <c r="A42" s="15"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.4" customHeight="1">
+      <c r="B44" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-    </row>
-    <row r="42" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.4" customHeight="1">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
     </row>
   </sheetData>
   <sortState ref="B4:K18">
     <sortCondition descending="1" ref="J18"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="B41:D42"/>
-    <mergeCell ref="E41:I42"/>
+    <mergeCell ref="B44:D45"/>
+    <mergeCell ref="E44:I45"/>
     <mergeCell ref="A1:O2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2022/komandnye/Komandnye_2022.xlsx
+++ b/2022/komandnye/Komandnye_2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>Сумма</t>
   </si>
@@ -90,24 +90,12 @@
     <t>г.о.г. Арзамас</t>
   </si>
   <si>
-    <t>Арзамасский р-н</t>
-  </si>
-  <si>
     <t>Председатель Федерации спортивного ориентирования Нижегородской области</t>
   </si>
   <si>
-    <t>г.о. Семёнов</t>
-  </si>
-  <si>
     <t>г. Нижний Новгород</t>
   </si>
   <si>
-    <t>Балахнинский р-н</t>
-  </si>
-  <si>
-    <t>Краснобаковский р-н</t>
-  </si>
-  <si>
     <t>23.04.2022  велокросс-спринт</t>
   </si>
   <si>
@@ -117,7 +105,49 @@
     <t>25.09.2022  велокросс-общий старт</t>
   </si>
   <si>
-    <t>Павловский р-н</t>
+    <t>15.10.2022  кросс-классика</t>
+  </si>
+  <si>
+    <t>16.10.2022  кросс-лонг-общий старт</t>
+  </si>
+  <si>
+    <t>23.10.2022  кросс-лонг</t>
+  </si>
+  <si>
+    <t>30.10.2022  кросс-марафон (многодневный)</t>
+  </si>
+  <si>
+    <t>г.о. Семёновский</t>
+  </si>
+  <si>
+    <t>г.о.г. Саров</t>
+  </si>
+  <si>
+    <t>998.6</t>
+  </si>
+  <si>
+    <t>958.9</t>
+  </si>
+  <si>
+    <t>797.7</t>
+  </si>
+  <si>
+    <t>Городецкий м.о.</t>
+  </si>
+  <si>
+    <t>Княгининский м.о.</t>
+  </si>
+  <si>
+    <t>Арзамасский м. р-н.</t>
+  </si>
+  <si>
+    <t>Балахнинский м.о.</t>
+  </si>
+  <si>
+    <t>Павловский м.о.</t>
+  </si>
+  <si>
+    <t>Краснобаковский м.о.</t>
   </si>
 </sst>
 </file>
@@ -128,7 +158,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +203,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -284,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,6 +383,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -354,6 +399,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -369,14 +416,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>48987</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19595</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>8714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323127</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>155487</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>144606</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -393,7 +440,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5796644" y="7879081"/>
+          <a:off x="5763987" y="10230400"/>
           <a:ext cx="1438911" cy="1453063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -407,13 +454,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22877</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>17199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295676</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>85125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -732,10 +779,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -750,40 +797,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="13"/>
@@ -834,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4">
         <v>992.3</v>
@@ -933,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4">
         <v>32</v>
@@ -981,13 +1028,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>11</v>
@@ -1002,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4">
         <v>810.1</v>
@@ -1052,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4">
         <v>411.7</v>
@@ -1140,10 +1187,18 @@
       <c r="F17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="K17" s="21" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4">
         <v>989.7</v>
@@ -1168,20 +1223,20 @@
         <v>993.4</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>990.1</v>
       </c>
       <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
+        <v>995.2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J18" s="4">
         <v>0</v>
       </c>
       <c r="K18" s="4">
         <f>SUM(C18:J18)</f>
-        <v>3973.8</v>
+        <v>5959.1</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6">
@@ -1204,20 +1259,20 @@
         <v>949.9</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>977.7</v>
       </c>
       <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
+        <v>998</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
       </c>
       <c r="K19" s="4">
         <f>SUM(C19:J19)</f>
-        <v>3295.7000000000003</v>
+        <v>5271.4000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6">
@@ -1240,20 +1295,20 @@
         <v>798</v>
       </c>
       <c r="G20" s="4">
-        <v>0</v>
+        <v>630.4</v>
       </c>
       <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
+        <v>527.9</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="J20" s="4">
         <v>0</v>
       </c>
       <c r="K20" s="4">
         <f>SUM(C20:J20)</f>
-        <v>3280.8</v>
+        <v>4439.1000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6">
@@ -1297,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4">
         <v>502.2</v>
@@ -1333,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4">
         <v>175.9</v>
@@ -1348,10 +1403,10 @@
         <v>96.1</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
@@ -1361,7 +1416,7 @@
       </c>
       <c r="K23" s="4">
         <f t="shared" si="1"/>
-        <v>424</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6">
@@ -1369,7 +1424,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1390,14 +1445,14 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>0</v>
+        <v>179.4</v>
       </c>
       <c r="J24" s="4">
         <v>0</v>
       </c>
       <c r="K24" s="4">
         <f>SUM(C24:J24)</f>
-        <v>64.7</v>
+        <v>244.10000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6">
@@ -1405,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -1420,7 +1475,7 @@
         <v>62.1</v>
       </c>
       <c r="G25" s="4">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -1433,319 +1488,477 @@
       </c>
       <c r="K25" s="4">
         <f>SUM(C25:J25)</f>
-        <v>62.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="46.8">
-      <c r="A27" s="6" t="s">
+        <v>103.80000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.6">
+      <c r="A26" s="28">
+        <v>9</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="28">
+        <v>0</v>
+      </c>
+      <c r="G26" s="28">
+        <v>83.8</v>
+      </c>
+      <c r="H26" s="28">
+        <v>89.9</v>
+      </c>
+      <c r="I26" s="28">
+        <v>89.5</v>
+      </c>
+      <c r="J26" s="28">
+        <v>0</v>
+      </c>
+      <c r="K26" s="28">
+        <f>SUM(C26:J26)</f>
+        <v>263.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.6">
+      <c r="A27" s="28">
+        <v>10</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="28">
+        <v>0</v>
+      </c>
+      <c r="G27" s="28">
+        <v>0</v>
+      </c>
+      <c r="H27" s="28">
+        <v>0</v>
+      </c>
+      <c r="I27" s="28">
+        <v>85.9</v>
+      </c>
+      <c r="J27" s="28">
+        <v>0</v>
+      </c>
+      <c r="K27" s="28">
+        <f>SUM(C27:J27)</f>
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.6">
+      <c r="A28" s="28">
+        <v>11</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="28">
+        <v>70.3</v>
+      </c>
+      <c r="J28" s="28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="28">
+        <f>SUM(C28:J28)</f>
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.6">
+      <c r="A29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" ht="46.8">
+      <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E30" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.6">
-      <c r="A28" s="4">
+      <c r="F30" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.6">
+      <c r="A31" s="4">
         <v>1</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="4">
         <f>SUM(C5:I5)</f>
         <v>8884.5</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D31" s="26">
         <f>C11+D11+E11</f>
         <v>2558.5</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E31" s="26">
         <f>SUM(C18:J18)</f>
-        <v>3973.8</v>
-      </c>
-      <c r="F28" s="24">
-        <f>SUM(C28:E28)</f>
-        <v>15416.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.6">
-      <c r="A29" s="4">
+        <v>5959.1</v>
+      </c>
+      <c r="F31" s="24">
+        <f>SUM(C31:E31)</f>
+        <v>17402.099999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.6">
+      <c r="A32" s="4">
         <v>2</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="4">
-        <f t="shared" ref="C29:C30" si="2">SUM(C6:I6)</f>
+      <c r="C32" s="4">
+        <f>SUM(C6:I6)</f>
         <v>6804.5999999999995</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D32" s="26">
         <f>C12+D12+E12</f>
         <v>1755.2</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E32" s="26">
         <f>SUM(C19:J19)</f>
-        <v>3295.7000000000003</v>
-      </c>
-      <c r="F29" s="24">
-        <f t="shared" ref="F29:F37" si="3">SUM(C29:E29)</f>
-        <v>11855.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.6">
-      <c r="A30" s="4">
+        <v>5271.4000000000005</v>
+      </c>
+      <c r="F32" s="24">
+        <f>SUM(C32:E32)</f>
+        <v>13831.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.6">
+      <c r="A33" s="4">
         <v>3</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="4">
-        <f t="shared" si="2"/>
+      <c r="C33" s="4">
+        <f>SUM(C7:I7)</f>
         <v>3851.7999999999997</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D33" s="26">
         <f>C14+D14+E14</f>
         <v>286.39999999999998</v>
       </c>
-      <c r="E30" s="26">
-        <f t="shared" ref="E30:E31" si="4">SUM(C20:J20)</f>
-        <v>3280.8</v>
-      </c>
-      <c r="F30" s="24">
-        <f t="shared" si="3"/>
-        <v>7419</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.6">
-      <c r="A31" s="4">
+      <c r="E33" s="26">
+        <f>SUM(C20:J20)</f>
+        <v>4439.1000000000004</v>
+      </c>
+      <c r="F33" s="24">
+        <f>SUM(C33:E33)</f>
+        <v>8577.2999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.6">
+      <c r="A34" s="4">
         <v>4</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="26">
-        <v>0</v>
-      </c>
-      <c r="E31" s="26">
-        <f t="shared" si="4"/>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+      <c r="E34" s="26">
+        <f>SUM(C21:J21)</f>
         <v>1091.2</v>
       </c>
-      <c r="F31" s="24">
-        <f t="shared" si="3"/>
+      <c r="F34" s="24">
+        <f>SUM(C34:E34)</f>
         <v>1091.2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6">
-      <c r="A32" s="4">
-        <v>6</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="26">
+    <row r="35" spans="1:9" ht="15.6">
+      <c r="A35" s="4">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="26">
         <f>C13+D13+E13</f>
         <v>839.09999999999991</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E35" s="26">
         <f>SUM(C24:J24)</f>
-        <v>64.7</v>
-      </c>
-      <c r="F32" s="24">
-        <f>C32+D32+E32</f>
-        <v>903.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.6">
-      <c r="A33" s="4">
-        <v>5</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
+        <v>244.10000000000002</v>
+      </c>
+      <c r="F35" s="24">
+        <f>C35+D35+E35</f>
+        <v>1083.1999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.6">
+      <c r="A36" s="4">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0</v>
+      </c>
+      <c r="E36" s="26">
         <f>SUM(C22:J22)</f>
         <v>682.9</v>
       </c>
-      <c r="F33" s="24">
-        <f t="shared" si="3"/>
+      <c r="F36" s="24">
+        <f>SUM(C36:E36)</f>
         <v>682.9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.6">
-      <c r="A34" s="4">
+    <row r="37" spans="1:9" ht="15.6">
+      <c r="A37" s="4">
         <v>7</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="26">
-        <v>0</v>
-      </c>
-      <c r="E34" s="26">
+      <c r="B37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
         <f>SUM(C23:J23)</f>
-        <v>424</v>
-      </c>
-      <c r="F34" s="24">
-        <f>C34+D34+E34</f>
-        <v>424</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.6">
-      <c r="A35" s="4">
+        <v>624</v>
+      </c>
+      <c r="F37" s="24">
+        <f>C37+D37+E37</f>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.6">
+      <c r="A38" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B38" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="28">
+        <v>0</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0</v>
+      </c>
+      <c r="E38" s="34">
+        <f>G26+H26+I26+J26</f>
+        <v>263.2</v>
+      </c>
+      <c r="F38" s="35">
+        <f>C38+D38+E38</f>
+        <v>263.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.6">
+      <c r="A39" s="4">
+        <v>9</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="26">
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="26">
         <f>C15+D15+E15</f>
         <v>141.1</v>
       </c>
-      <c r="E35" s="26">
-        <v>0</v>
-      </c>
-      <c r="F35" s="24">
-        <f>C35+D35+E35</f>
+      <c r="E39" s="26">
+        <v>0</v>
+      </c>
+      <c r="F39" s="24">
+        <f>C39+D39+E39</f>
         <v>141.1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.6">
-      <c r="A36" s="4">
-        <v>9</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="26">
-        <v>0</v>
-      </c>
-      <c r="E36" s="26">
+    <row r="40" spans="1:9" ht="15.6">
+      <c r="A40" s="4">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="26">
+        <v>0</v>
+      </c>
+      <c r="E40" s="26">
         <f>SUM(C25:J25)</f>
-        <v>62.1</v>
-      </c>
-      <c r="F36" s="24">
-        <f>C36+D36+E36</f>
-        <v>62.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.6">
-      <c r="A37" s="4">
-        <v>10</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="4">
+        <v>103.80000000000001</v>
+      </c>
+      <c r="F40" s="24">
+        <f>C40+D40+E40</f>
+        <v>103.80000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.6">
+      <c r="A41" s="4">
+        <v>11</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="30">
+        <v>0</v>
+      </c>
+      <c r="E41" s="34">
+        <f>I27+J27</f>
+        <v>85.9</v>
+      </c>
+      <c r="F41" s="24">
+        <f>SUM(C41:E41)</f>
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.6">
+      <c r="A42" s="4">
+        <v>12</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="30">
+        <v>0</v>
+      </c>
+      <c r="E42" s="34">
+        <f>I28+J28</f>
+        <v>70.3</v>
+      </c>
+      <c r="F42" s="35">
+        <f>C42+D42+E42</f>
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.6">
+      <c r="A43" s="4">
+        <v>13</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4">
         <f>SUM(C8:I8)</f>
         <v>32</v>
       </c>
-      <c r="D37" s="26">
-        <v>0</v>
-      </c>
-      <c r="E37" s="26">
-        <v>0</v>
-      </c>
-      <c r="F37" s="24">
-        <f t="shared" si="3"/>
+      <c r="D43" s="26">
+        <v>0</v>
+      </c>
+      <c r="E43" s="26">
+        <v>0</v>
+      </c>
+      <c r="F43" s="24">
+        <f>SUM(C43:E43)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.6">
-      <c r="A39" s="15"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.6">
-      <c r="A40" s="15"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.6">
-      <c r="A41" s="15"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.6">
-      <c r="A42" s="15"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="44" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B44" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29" t="s">
+    <row r="44" spans="1:9" ht="15.6">
+      <c r="A44" s="15"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.6">
+      <c r="A45" s="15"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.4" customHeight="1">
+      <c r="B47" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-    </row>
-    <row r="45" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.4" customHeight="1">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
     </row>
   </sheetData>
-  <sortState ref="B4:K18">
-    <sortCondition descending="1" ref="J18"/>
-  </sortState>
   <mergeCells count="3">
-    <mergeCell ref="B44:D45"/>
-    <mergeCell ref="E44:I45"/>
+    <mergeCell ref="B47:D48"/>
+    <mergeCell ref="E47:I48"/>
     <mergeCell ref="A1:O2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2022/komandnye/Komandnye_2022.xlsx
+++ b/2022/komandnye/Komandnye_2022.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$4:$J$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$C$31:$F$43</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Сумма</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Председатель Федерации спортивного ориентирования Нижегородской области</t>
   </si>
   <si>
-    <t>г. Нижний Новгород</t>
-  </si>
-  <si>
     <t>23.04.2022  велокросс-спринт</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Краснобаковский м.о.</t>
+  </si>
+  <si>
+    <t>г.о.г. Нижний Новгород</t>
   </si>
 </sst>
 </file>
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -390,6 +390,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -399,8 +400,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -416,13 +415,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>48987</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>8714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323127</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>144606</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -454,13 +453,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22877</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>17199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295676</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>85125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -779,10 +778,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -797,40 +796,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="13"/>
@@ -881,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4">
         <v>992.3</v>
@@ -980,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4">
         <v>32</v>
@@ -1028,13 +1027,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>11</v>
@@ -1049,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4">
         <v>810.1</v>
@@ -1099,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4">
         <v>411.7</v>
@@ -1188,16 +1187,16 @@
         <v>15</v>
       </c>
       <c r="G17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="I17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="J17" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>16</v>
@@ -1208,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4">
         <v>989.7</v>
@@ -1229,14 +1228,14 @@
         <v>995.2</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="4">
-        <v>0</v>
+        <v>995.2</v>
       </c>
       <c r="K18" s="4">
         <f>SUM(C18:J18)</f>
-        <v>5959.1</v>
+        <v>6954.3</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6">
@@ -1265,14 +1264,14 @@
         <v>998</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" s="4">
-        <v>0</v>
+        <v>976.3</v>
       </c>
       <c r="K19" s="4">
         <f>SUM(C19:J19)</f>
-        <v>5271.4000000000005</v>
+        <v>6247.7000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6">
@@ -1301,14 +1300,14 @@
         <v>527.9</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" s="4">
-        <v>0</v>
+        <v>578.6</v>
       </c>
       <c r="K20" s="4">
         <f>SUM(C20:J20)</f>
-        <v>4439.1000000000004</v>
+        <v>5017.7000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6">
@@ -1352,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4">
         <v>502.2</v>
@@ -1379,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" ref="K22:K23" si="1">SUM(C22:J22)</f>
+        <f>SUM(C22:J22)</f>
         <v>682.9</v>
       </c>
     </row>
@@ -1388,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4">
         <v>175.9</v>
@@ -1415,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(C23:J23)</f>
         <v>624</v>
       </c>
     </row>
@@ -1424,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1448,19 +1447,19 @@
         <v>179.4</v>
       </c>
       <c r="J24" s="4">
-        <v>0</v>
+        <v>215.5</v>
       </c>
       <c r="K24" s="4">
         <f>SUM(C24:J24)</f>
-        <v>244.10000000000002</v>
+        <v>459.6</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6">
       <c r="A25" s="4">
         <v>8</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>41</v>
+      <c r="B25" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -1471,24 +1470,24 @@
       <c r="E25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="4">
-        <v>62.1</v>
-      </c>
-      <c r="G25" s="4">
-        <v>41.7</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="F25" s="28">
+        <v>0</v>
+      </c>
+      <c r="G25" s="28">
+        <v>83.8</v>
+      </c>
+      <c r="H25" s="28">
+        <v>89.9</v>
+      </c>
+      <c r="I25" s="28">
+        <v>89.5</v>
+      </c>
+      <c r="J25" s="28">
+        <v>0</v>
+      </c>
+      <c r="K25" s="28">
         <f>SUM(C25:J25)</f>
-        <v>103.80000000000001</v>
+        <v>263.2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6">
@@ -1496,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1511,20 +1510,20 @@
         <v>0</v>
       </c>
       <c r="G26" s="28">
-        <v>83.8</v>
+        <v>0</v>
       </c>
       <c r="H26" s="28">
-        <v>89.9</v>
+        <v>0</v>
       </c>
       <c r="I26" s="28">
-        <v>89.5</v>
+        <v>70.3</v>
       </c>
       <c r="J26" s="28">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="K26" s="28">
         <f>SUM(C26:J26)</f>
-        <v>263.2</v>
+        <v>207.3</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6">
@@ -1532,7 +1531,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -1556,19 +1555,19 @@
         <v>85.9</v>
       </c>
       <c r="J27" s="28">
-        <v>0</v>
+        <v>90.1</v>
       </c>
       <c r="K27" s="28">
         <f>SUM(C27:J27)</f>
-        <v>85.9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6">
       <c r="A28" s="28">
         <v>11</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>37</v>
+      <c r="B28" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1579,326 +1578,336 @@
       <c r="E28" s="4">
         <v>0</v>
       </c>
-      <c r="F28" s="28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="28">
-        <v>70.3</v>
-      </c>
-      <c r="J28" s="28">
-        <v>0</v>
-      </c>
-      <c r="K28" s="28">
+      <c r="F28" s="4">
+        <v>62.1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>41.7</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
         <f>SUM(C28:J28)</f>
-        <v>70.3</v>
+        <v>103.80000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6">
-      <c r="A29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" ht="46.8">
-      <c r="A30" s="6" t="s">
+      <c r="A29" s="28">
+        <v>12</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="28">
+        <v>78.7</v>
+      </c>
+      <c r="K29" s="28">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.6">
+      <c r="A30" s="27"/>
+    </row>
+    <row r="31" spans="1:11" ht="46.8">
+      <c r="A31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.6">
-      <c r="A31" s="4">
+      <c r="F31" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.6">
+      <c r="A32" s="4">
         <v>1</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="4">
         <f>SUM(C5:I5)</f>
         <v>8884.5</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D32" s="26">
         <f>C11+D11+E11</f>
         <v>2558.5</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E32" s="26">
         <f>SUM(C18:J18)</f>
-        <v>5959.1</v>
-      </c>
-      <c r="F31" s="24">
-        <f>SUM(C31:E31)</f>
-        <v>17402.099999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.6">
-      <c r="A32" s="4">
+        <v>6954.3</v>
+      </c>
+      <c r="F32" s="24">
+        <f>C32+D32+E32</f>
+        <v>18397.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.6">
+      <c r="A33" s="4">
         <v>2</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C33" s="4">
         <f>SUM(C6:I6)</f>
         <v>6804.5999999999995</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D33" s="26">
         <f>C12+D12+E12</f>
         <v>1755.2</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E33" s="26">
         <f>SUM(C19:J19)</f>
-        <v>5271.4000000000005</v>
-      </c>
-      <c r="F32" s="24">
-        <f>SUM(C32:E32)</f>
-        <v>13831.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.6">
-      <c r="A33" s="4">
+        <v>6247.7000000000007</v>
+      </c>
+      <c r="F33" s="24">
+        <f t="shared" ref="F33:F42" si="1">C33+D33+E33</f>
+        <v>14807.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.6">
+      <c r="A34" s="4">
         <v>3</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C34" s="4">
         <f>SUM(C7:I7)</f>
         <v>3851.7999999999997</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D34" s="26">
         <f>C14+D14+E14</f>
         <v>286.39999999999998</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E34" s="26">
         <f>SUM(C20:J20)</f>
-        <v>4439.1000000000004</v>
-      </c>
-      <c r="F33" s="24">
-        <f>SUM(C33:E33)</f>
-        <v>8577.2999999999993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.6">
-      <c r="A34" s="4">
+        <v>5017.7000000000007</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="1"/>
+        <v>9155.9000000000015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.6">
+      <c r="A35" s="4">
         <v>4</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="26">
-        <v>0</v>
-      </c>
-      <c r="E34" s="26">
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+      <c r="E35" s="26">
         <f>SUM(C21:J21)</f>
         <v>1091.2</v>
       </c>
-      <c r="F34" s="24">
-        <f>SUM(C34:E34)</f>
+      <c r="F35" s="24">
+        <f t="shared" si="1"/>
         <v>1091.2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.6">
-      <c r="A35" s="4">
+    <row r="36" spans="1:9" ht="15.6">
+      <c r="A36" s="4">
         <v>5</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="26">
+      <c r="B36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="26">
         <f>C13+D13+E13</f>
         <v>839.09999999999991</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E36" s="26">
         <f>SUM(C24:J24)</f>
-        <v>244.10000000000002</v>
-      </c>
-      <c r="F35" s="24">
-        <f>C35+D35+E35</f>
-        <v>1083.1999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.6">
-      <c r="A36" s="4">
+        <v>459.6</v>
+      </c>
+      <c r="F36" s="24">
+        <f t="shared" si="1"/>
+        <v>1298.6999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.6">
+      <c r="A37" s="4">
         <v>6</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="26">
-        <v>0</v>
-      </c>
-      <c r="E36" s="26">
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
         <f>SUM(C22:J22)</f>
         <v>682.9</v>
       </c>
-      <c r="F36" s="24">
-        <f>SUM(C36:E36)</f>
+      <c r="F37" s="24">
+        <f t="shared" si="1"/>
         <v>682.9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.6">
-      <c r="A37" s="4">
+    <row r="38" spans="1:9" ht="15.6">
+      <c r="A38" s="4">
         <v>7</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37" s="26">
-        <v>0</v>
-      </c>
-      <c r="E37" s="26">
+      <c r="B38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="26">
+        <v>0</v>
+      </c>
+      <c r="E38" s="26">
         <f>SUM(C23:J23)</f>
         <v>624</v>
       </c>
-      <c r="F37" s="24">
-        <f>C37+D37+E37</f>
+      <c r="F38" s="24">
+        <f t="shared" si="1"/>
         <v>624</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.6">
-      <c r="A38" s="4">
-        <v>8</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="28">
-        <v>0</v>
-      </c>
-      <c r="D38" s="30">
-        <v>0</v>
-      </c>
-      <c r="E38" s="34">
-        <f>G26+H26+I26+J26</f>
-        <v>263.2</v>
-      </c>
-      <c r="F38" s="35">
-        <f>C38+D38+E38</f>
-        <v>263.2</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="4">
+        <v>8</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="28">
+        <v>0</v>
+      </c>
+      <c r="D39" s="30">
+        <v>0</v>
+      </c>
+      <c r="E39" s="31">
+        <v>263.2</v>
+      </c>
+      <c r="F39" s="24">
+        <f t="shared" si="1"/>
+        <v>263.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6">
+      <c r="A40" s="4">
         <v>9</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="30">
+        <v>0</v>
+      </c>
+      <c r="E40" s="31">
+        <v>207.3</v>
+      </c>
+      <c r="F40" s="24">
+        <f t="shared" ref="F40:F41" si="2">C40+D40+E40</f>
+        <v>207.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.6">
+      <c r="A41" s="4">
+        <v>10</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="30">
+        <v>0</v>
+      </c>
+      <c r="E41" s="31">
+        <v>176</v>
+      </c>
+      <c r="F41" s="24">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.6">
+      <c r="A42" s="4">
+        <v>11</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="26">
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="26">
         <f>C15+D15+E15</f>
         <v>141.1</v>
       </c>
-      <c r="E39" s="26">
-        <v>0</v>
-      </c>
-      <c r="F39" s="24">
-        <f>C39+D39+E39</f>
+      <c r="E42" s="26">
+        <v>0</v>
+      </c>
+      <c r="F42" s="24">
+        <f t="shared" si="1"/>
         <v>141.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.6">
-      <c r="A40" s="4">
-        <v>10</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="26">
-        <v>0</v>
-      </c>
-      <c r="E40" s="26">
-        <f>SUM(C25:J25)</f>
-        <v>103.80000000000001</v>
-      </c>
-      <c r="F40" s="24">
-        <f>C40+D40+E40</f>
-        <v>103.80000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.6">
-      <c r="A41" s="4">
-        <v>11</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="30">
-        <v>0</v>
-      </c>
-      <c r="E41" s="34">
-        <f>I27+J27</f>
-        <v>85.9</v>
-      </c>
-      <c r="F41" s="24">
-        <f>SUM(C41:E41)</f>
-        <v>85.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.6">
-      <c r="A42" s="4">
-        <v>12</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="30">
-        <v>0</v>
-      </c>
-      <c r="E42" s="34">
-        <f>I28+J28</f>
-        <v>70.3</v>
-      </c>
-      <c r="F42" s="35">
-        <f>C42+D42+E42</f>
-        <v>70.3</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="4">
         <f>SUM(C8:I8)</f>
@@ -1908,20 +1917,33 @@
         <v>0</v>
       </c>
       <c r="E43" s="26">
-        <v>0</v>
+        <v>78.7</v>
       </c>
       <c r="F43" s="24">
-        <f>SUM(C43:E43)</f>
-        <v>32</v>
+        <f>C43+D43+E43</f>
+        <v>110.7</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6">
-      <c r="A44" s="15"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="A44" s="4">
+        <v>13</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="26">
+        <v>0</v>
+      </c>
+      <c r="E44" s="26">
+        <v>103.8</v>
+      </c>
+      <c r="F44" s="24">
+        <f>C44+D44+E44</f>
+        <v>103.8</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="15"/>
@@ -1931,34 +1953,43 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="47" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B47" s="31" t="s">
+    <row r="46" spans="1:9" ht="15.6">
+      <c r="A46" s="15"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.4" customHeight="1">
+      <c r="B48" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32" t="s">
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-    </row>
-    <row r="48" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+    </row>
+    <row r="49" spans="2:9" ht="14.4" customHeight="1">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
     </row>
   </sheetData>
+  <autoFilter ref="C31:F44"/>
   <mergeCells count="3">
-    <mergeCell ref="B47:D48"/>
-    <mergeCell ref="E47:I48"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="E48:I49"/>
     <mergeCell ref="A1:O2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
